--- a/docs/画面項目定義書/利用者の追加モーダル.xlsx
+++ b/docs/画面項目定義書/利用者の追加モーダル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFBA6D2-B3FA-4E8D-8443-4FE4622817F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1590CE-E476-41B9-AA8A-9E937A47CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -56,24 +56,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>add-name</t>
-  </si>
-  <si>
-    <t>add-email</t>
-  </si>
-  <si>
-    <t>add-cpu</t>
-  </si>
-  <si>
-    <t>add-memory</t>
-  </si>
-  <si>
-    <t>add-storage</t>
-  </si>
-  <si>
-    <t>submit_button</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -117,6 +99,24 @@
   </si>
   <si>
     <t>利用者追加ボタン</t>
+  </si>
+  <si>
+    <t>アカウント名</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>最大CPU数</t>
+  </si>
+  <si>
+    <t>最大メモリ数</t>
+  </si>
+  <si>
+    <t>最大ストレージ数</t>
+  </si>
+  <si>
+    <t>追加ボタン</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
@@ -1105,18 +1105,18 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.25">
@@ -1124,20 +1124,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.25">
@@ -1145,20 +1145,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.25">
@@ -1166,20 +1166,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.25">
@@ -1187,20 +1187,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>21</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.25">
@@ -1208,16 +1208,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.25">

--- a/docs/画面項目定義書/利用者の追加モーダル.xlsx
+++ b/docs/画面項目定義書/利用者の追加モーダル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1590CE-E476-41B9-AA8A-9E937A47CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58A7E1-333E-4905-9BAC-2BE69C2EF78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -56,18 +56,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
     <t>○</t>
   </si>
   <si>
@@ -83,24 +71,6 @@
     <t>最小10以上（GB）</t>
   </si>
   <si>
-    <t>アカウント名の入力欄</t>
-  </si>
-  <si>
-    <t>メールアドレスの入力欄</t>
-  </si>
-  <si>
-    <t>最大CPU数入力欄（vCPU）</t>
-  </si>
-  <si>
-    <t>最大メモリ数入力欄（GB）</t>
-  </si>
-  <si>
-    <t>最大ストレージ数入力欄（GB）</t>
-  </si>
-  <si>
-    <t>利用者追加ボタン</t>
-  </si>
-  <si>
     <t>アカウント名</t>
   </si>
   <si>
@@ -117,6 +87,37 @@
   </si>
   <si>
     <t>追加ボタン</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>テキストボックス（メール形式）</t>
+  </si>
+  <si>
+    <t>テキストボックス（数値）</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>新規利用者のアカウント名を入力する</t>
+  </si>
+  <si>
+    <t>新規利用者のメールアドレスを入力する</t>
+  </si>
+  <si>
+    <t>利用者が利用可能な仮想マシンの最大CPU数（vCPU）を入力する</t>
+  </si>
+  <si>
+    <t>利用者が利用可能な仮想マシンの最大メモリ容量（GB）を入力する</t>
+  </si>
+  <si>
+    <t>利用者が利用可能な仮想マシンの最大ストレージ容量（GB）を入力する</t>
+  </si>
+  <si>
+    <t>入力内容で利用者を追加し、利用者管理画面に戻る</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -993,7 +994,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
@@ -1100,124 +1101,124 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.25">
+    <row r="9" spans="1:7" ht="24.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36.75">
       <c r="A10" s="28">
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24.5">
       <c r="A14" s="28">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.25">

--- a/docs/画面項目定義書/利用者の追加モーダル.xlsx
+++ b/docs/画面項目定義書/利用者の追加モーダル.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58A7E1-333E-4905-9BAC-2BE69C2EF78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43476726-FD89-435E-81D7-103F284CC856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -52,71 +52,71 @@
     <t>処理</t>
   </si>
   <si>
-    <t>利用者の追加</t>
+    <t>○</t>
+  </si>
+  <si>
+    <t>メール形式</t>
+  </si>
+  <si>
+    <t>最小1以上</t>
+  </si>
+  <si>
+    <t>最小1以上（GB）</t>
+  </si>
+  <si>
+    <t>最小10以上（GB）</t>
+  </si>
+  <si>
+    <t>アカウント名</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>最大CPU数</t>
+  </si>
+  <si>
+    <t>最大メモリ数</t>
+  </si>
+  <si>
+    <t>最大ストレージ数</t>
+  </si>
+  <si>
+    <t>追加ボタン</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>テキストボックス（メール形式）</t>
+  </si>
+  <si>
+    <t>テキストボックス（数値）</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>新規利用者のアカウント名を入力する</t>
+  </si>
+  <si>
+    <t>新規利用者のメールアドレスを入力する</t>
+  </si>
+  <si>
+    <t>利用者が利用可能な仮想マシンの最大CPU数（vCPU）を入力する</t>
+  </si>
+  <si>
+    <t>利用者が利用可能な仮想マシンの最大メモリ容量（GB）を入力する</t>
+  </si>
+  <si>
+    <t>利用者が利用可能な仮想マシンの最大ストレージ容量（GB）を入力する</t>
+  </si>
+  <si>
+    <t>入力内容で利用者を追加し、利用者管理画面に戻る</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>メール形式</t>
-  </si>
-  <si>
-    <t>最小1以上</t>
-  </si>
-  <si>
-    <t>最小1以上（GB）</t>
-  </si>
-  <si>
-    <t>最小10以上（GB）</t>
-  </si>
-  <si>
-    <t>アカウント名</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>最大CPU数</t>
-  </si>
-  <si>
-    <t>最大メモリ数</t>
-  </si>
-  <si>
-    <t>最大ストレージ数</t>
-  </si>
-  <si>
-    <t>追加ボタン</t>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-  </si>
-  <si>
-    <t>テキストボックス（メール形式）</t>
-  </si>
-  <si>
-    <t>テキストボックス（数値）</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>新規利用者のアカウント名を入力する</t>
-  </si>
-  <si>
-    <t>新規利用者のメールアドレスを入力する</t>
-  </si>
-  <si>
-    <t>利用者が利用可能な仮想マシンの最大CPU数（vCPU）を入力する</t>
-  </si>
-  <si>
-    <t>利用者が利用可能な仮想マシンの最大メモリ容量（GB）を入力する</t>
-  </si>
-  <si>
-    <t>利用者が利用可能な仮想マシンの最大ストレージ容量（GB）を入力する</t>
-  </si>
-  <si>
-    <t>入力内容で利用者を追加し、利用者管理画面に戻る</t>
+    <t>mo_user_add</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -994,20 +994,20 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.76953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.40625" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.25">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.25">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1027,7 +1027,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1036,7 +1036,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.25">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1045,7 +1045,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1058,9 +1058,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.25">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="38" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11"/>
@@ -1069,7 +1069,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.25">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1078,7 +1078,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.25">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1101,127 +1101,127 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.5">
+    <row r="9" spans="1:7" ht="24">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36">
       <c r="A10" s="28">
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="21">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="28">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" ht="13.25">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="13.25">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13.25">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28">
         <v>10</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.25">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.25">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.25">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.25">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.25">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.25">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.25">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1351,7 +1351,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.25">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1360,7 +1360,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.25">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1369,7 +1369,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.25">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
